--- a/data/trans_dic/P16A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,17</t>
+          <t>2,48; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,8</t>
+          <t>2,95; 7,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 8,87</t>
+          <t>4,09; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,88</t>
+          <t>6,34; 11,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,38</t>
+          <t>4,8; 10,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 11,09</t>
+          <t>4,59; 11,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 11,57</t>
+          <t>5,7; 11,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,8</t>
+          <t>7,37; 11,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,08</t>
+          <t>3,87; 7,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,05</t>
+          <t>4,22; 8,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,13</t>
+          <t>5,24; 9,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,71</t>
+          <t>7,49; 10,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,13</t>
+          <t>2,5; 7,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,57</t>
+          <t>3,46; 8,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,3</t>
+          <t>3,62; 8,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,18</t>
+          <t>4,76; 9,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,31</t>
+          <t>6,26; 12,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,5</t>
+          <t>5,92; 12,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,24</t>
+          <t>4,13; 9,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,76</t>
+          <t>10,42; 15,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,72</t>
+          <t>4,94; 8,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,38</t>
+          <t>5,16; 9,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,96</t>
+          <t>4,27; 7,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,62</t>
+          <t>7,79; 11,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,47</t>
+          <t>3,71; 7,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,69</t>
+          <t>7,79; 13,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,25</t>
+          <t>4,25; 8,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 11,63</t>
+          <t>2,51; 11,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 18,92</t>
+          <t>8,36; 18,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 23,19</t>
+          <t>13,77; 23,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,82; 24,74</t>
+          <t>11,91; 24,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 26,5</t>
+          <t>16,96; 26,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,0</t>
+          <t>5,2; 9,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,92</t>
+          <t>10,04; 15,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,48</t>
+          <t>6,81; 11,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,43</t>
+          <t>3,84; 14,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,24</t>
+          <t>3,82; 6,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,89</t>
+          <t>5,59; 8,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,7</t>
+          <t>5,45; 8,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,16</t>
+          <t>7,81; 11,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 12,26</t>
+          <t>7,78; 12,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 16,62</t>
+          <t>11,17; 16,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 15,48</t>
+          <t>10,94; 15,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,33</t>
+          <t>6,0; 16,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 7,85</t>
+          <t>5,67; 7,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,16</t>
+          <t>8,21; 11,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,06</t>
+          <t>8,24; 10,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,61</t>
+          <t>7,83; 12,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,58</t>
+          <t>4,88; 10,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,06</t>
+          <t>4,16; 8,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,36</t>
+          <t>5,86; 10,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,96</t>
+          <t>8,63; 14,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,59</t>
+          <t>10,19; 15,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,05; 23,14</t>
+          <t>16,98; 22,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,96; 25,17</t>
+          <t>19,16; 25,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 26,4</t>
+          <t>16,72; 26,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,92; 13,04</t>
+          <t>8,83; 12,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,55; 16,75</t>
+          <t>12,37; 16,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,38</t>
+          <t>13,47; 17,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,25; 20,82</t>
+          <t>15,02; 21,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,41</t>
+          <t>1,68; 6,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,32</t>
+          <t>1,06; 5,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,98</t>
+          <t>0,68; 3,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 11,12</t>
+          <t>2,56; 12,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,57; 14,37</t>
+          <t>10,58; 14,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,31</t>
+          <t>15,5; 20,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,95</t>
+          <t>15,02; 19,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 22,44</t>
+          <t>17,75; 22,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,18; 12,18</t>
+          <t>9,15; 12,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 16,89</t>
+          <t>12,89; 16,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,08</t>
+          <t>12,14; 16,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,56; 18,76</t>
+          <t>14,48; 18,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,67</t>
+          <t>4,21; 5,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 7,58</t>
+          <t>5,7; 7,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,2</t>
+          <t>5,48; 7,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,48</t>
+          <t>6,37; 9,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,06; 12,17</t>
+          <t>10,01; 12,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,34; 16,82</t>
+          <t>14,35; 16,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,01; 16,53</t>
+          <t>13,9; 16,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,67; 18,22</t>
+          <t>13,53; 18,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,74</t>
+          <t>7,4; 8,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,41; 11,98</t>
+          <t>10,42; 12,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,07; 11,63</t>
+          <t>9,98; 11,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 13,57</t>
+          <t>10,89; 13,71</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19606</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21204</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26170</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>42681</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22231</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23486</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28455</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41992</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41837</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44690</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>54625</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>84673</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11754; 30438</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12893; 33437</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17558; 39240</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32043; 56247</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14728; 33208</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14446; 34812</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19788; 41120</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32975; 53035</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30228; 55660</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31757; 61970</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40698; 70147</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71393; 103052</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15937</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22970</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20924</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30242</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33245</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30138</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23421</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49477</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49182</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53108</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44345</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79719</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9158; 25936</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14507; 36240</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13661; 32261</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21539; 41001</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23261; 45256</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20017; 43338</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15361; 35104</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39848; 60290</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>36463; 63996</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39078; 71229</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32016; 58451</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>65033; 94078</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28343</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63186</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31148</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45424</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21307</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46630</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29287</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>35194</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49650</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>109816</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60435</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>80618</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20109; 39140</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49028; 82615</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22174; 44065</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16778; 77496</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14021; 30940</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35832; 60178</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19790; 41480</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28315; 44233</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36926; 64855</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>89341; 133822</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46868; 77071</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32046; 120968</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60908</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>81129</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80780</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>97060</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>70291</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>104734</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>108297</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>121954</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>131199</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>185864</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189077</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>219013</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>47305; 78400</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64838; 101855</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>62622; 100847</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>80869; 114398</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55559; 86832</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>85599; 124856</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>90389; 131198</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58663; 162610</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>110671; 154988</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>158036; 214121</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>162714; 216236</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>157643; 254007</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25893</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30461</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>48597</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>52433</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74752</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>151692</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>161218</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>190933</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>100645</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>182153</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>209815</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>243367</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17095; 36783</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21221; 41624</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36369; 62332</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>41000; 66959</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>57968; 90917</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>129332; 173681</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>141477; 188570</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>140705; 220514</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>81146; 119202</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>157306; 210629</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>182987; 238666</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>197680; 276830</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10338</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5078</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12583</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>153909</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>197176</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>186444</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>152606</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>164247</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>203895</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>191523</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>165189</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5003; 18543</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2817; 13712</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1951; 11052</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6148; 29805</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>132172; 177792</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>171979; 225058</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>162504; 215253</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>135157; 171686</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>141548; 190793</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>177402; 230203</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>166167; 222481</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>145031; 186768</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1416</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>225670</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>212698</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>280422</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>375734</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>553856</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>537122</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>592157</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>536759</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>779526</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>749820</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>872578</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>137701; 185541</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>195028; 256795</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>185588; 241763</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>215214; 318400</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>338095; 407754</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>509602; 598060</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>490981; 580088</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>484111; 649029</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>492266; 583408</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>726561; 839026</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>690652; 804589</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>757378; 953407</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
